--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.67276066666667</v>
+        <v>23.069913</v>
       </c>
       <c r="H2">
-        <v>86.018282</v>
+        <v>69.20973899999998</v>
       </c>
       <c r="I2">
-        <v>0.9474462168692853</v>
+        <v>0.9355059672894461</v>
       </c>
       <c r="J2">
-        <v>0.9474462168692853</v>
+        <v>0.9355059672894461</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.098778</v>
+        <v>0.7285076666666667</v>
       </c>
       <c r="N2">
-        <v>6.296334</v>
+        <v>2.185523</v>
       </c>
       <c r="O2">
-        <v>0.3165022962792946</v>
+        <v>0.1384760821597099</v>
       </c>
       <c r="P2">
-        <v>0.3165022962792947</v>
+        <v>0.1384760821597099</v>
       </c>
       <c r="Q2">
-        <v>60.17775928646532</v>
+        <v>16.806608489833</v>
       </c>
       <c r="R2">
-        <v>541.5998335781879</v>
+        <v>151.259476408497</v>
       </c>
       <c r="S2">
-        <v>0.2998689032402593</v>
+        <v>0.1295452011872723</v>
       </c>
       <c r="T2">
-        <v>0.2998689032402594</v>
+        <v>0.1295452011872723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.67276066666667</v>
+        <v>23.069913</v>
       </c>
       <c r="H3">
-        <v>86.018282</v>
+        <v>69.20973899999998</v>
       </c>
       <c r="I3">
-        <v>0.9474462168692853</v>
+        <v>0.9355059672894461</v>
       </c>
       <c r="J3">
-        <v>0.9474462168692853</v>
+        <v>0.9355059672894461</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>10.7531</v>
       </c>
       <c r="O3">
-        <v>0.5405337204349202</v>
+        <v>0.6813230330092965</v>
       </c>
       <c r="P3">
-        <v>0.5405337204349203</v>
+        <v>0.6813230330092966</v>
       </c>
       <c r="Q3">
-        <v>102.7736875749111</v>
+        <v>82.69102716009998</v>
       </c>
       <c r="R3">
-        <v>924.9631881742</v>
+        <v>744.2192444408998</v>
       </c>
       <c r="S3">
-        <v>0.5121266285163451</v>
+        <v>0.6373817630319412</v>
       </c>
       <c r="T3">
-        <v>0.5121266285163452</v>
+        <v>0.6373817630319413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.67276066666667</v>
+        <v>23.069913</v>
       </c>
       <c r="H4">
-        <v>86.018282</v>
+        <v>69.20973899999998</v>
       </c>
       <c r="I4">
-        <v>0.9474462168692853</v>
+        <v>0.9355059672894461</v>
       </c>
       <c r="J4">
-        <v>0.9474462168692853</v>
+        <v>0.9355059672894461</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.844052</v>
       </c>
       <c r="O4">
-        <v>0.1429639832857851</v>
+        <v>0.1802008848309935</v>
       </c>
       <c r="P4">
-        <v>0.1429639832857851</v>
+        <v>0.1802008848309935</v>
       </c>
       <c r="Q4">
-        <v>27.18227410651822</v>
+        <v>21.870677402492</v>
       </c>
       <c r="R4">
-        <v>244.640466958664</v>
+        <v>196.836096622428</v>
       </c>
       <c r="S4">
-        <v>0.1354506851126808</v>
+        <v>0.1685790030702326</v>
       </c>
       <c r="T4">
-        <v>0.1354506851126808</v>
+        <v>0.1685790030702326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.27086</v>
       </c>
       <c r="I5">
-        <v>0.02501233070476559</v>
+        <v>0.03069514654402774</v>
       </c>
       <c r="J5">
-        <v>0.02501233070476559</v>
+        <v>0.03069514654402774</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.098778</v>
+        <v>0.7285076666666667</v>
       </c>
       <c r="N5">
-        <v>6.296334</v>
+        <v>2.185523</v>
       </c>
       <c r="O5">
-        <v>0.3165022962792946</v>
+        <v>0.1384760821597099</v>
       </c>
       <c r="P5">
-        <v>0.3165022962792947</v>
+        <v>0.1384760821597099</v>
       </c>
       <c r="Q5">
-        <v>1.588677003026666</v>
+        <v>0.5514463066422222</v>
       </c>
       <c r="R5">
-        <v>14.29809302724</v>
+        <v>4.963016759779999</v>
       </c>
       <c r="S5">
-        <v>0.007916460103355416</v>
+        <v>0.004250543634735122</v>
       </c>
       <c r="T5">
-        <v>0.007916460103355418</v>
+        <v>0.004250543634735122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.27086</v>
       </c>
       <c r="I6">
-        <v>0.02501233070476559</v>
+        <v>0.03069514654402774</v>
       </c>
       <c r="J6">
-        <v>0.02501233070476559</v>
+        <v>0.03069514654402774</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>10.7531</v>
       </c>
       <c r="O6">
-        <v>0.5405337204349202</v>
+        <v>0.6813230330092965</v>
       </c>
       <c r="P6">
-        <v>0.5405337204349203</v>
+        <v>0.6813230330092966</v>
       </c>
       <c r="Q6">
         <v>2.713198296222222</v>
@@ -818,10 +818,10 @@
         <v>24.418784666</v>
       </c>
       <c r="S6">
-        <v>0.01352000817259553</v>
+        <v>0.02091331034204181</v>
       </c>
       <c r="T6">
-        <v>0.01352000817259554</v>
+        <v>0.02091331034204181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.27086</v>
       </c>
       <c r="I7">
-        <v>0.02501233070476559</v>
+        <v>0.03069514654402774</v>
       </c>
       <c r="J7">
-        <v>0.02501233070476559</v>
+        <v>0.03069514654402774</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.844052</v>
       </c>
       <c r="O7">
-        <v>0.1429639832857851</v>
+        <v>0.1802008848309935</v>
       </c>
       <c r="P7">
-        <v>0.1429639832857851</v>
+        <v>0.1802008848309935</v>
       </c>
       <c r="Q7">
         <v>0.7176048805244444</v>
@@ -880,10 +880,10 @@
         <v>6.45844392472</v>
       </c>
       <c r="S7">
-        <v>0.003575862428814637</v>
+        <v>0.00553129256725081</v>
       </c>
       <c r="T7">
-        <v>0.003575862428814637</v>
+        <v>0.005531292567250811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.500478</v>
       </c>
       <c r="I8">
-        <v>0.02754145242594914</v>
+        <v>0.03379888616652608</v>
       </c>
       <c r="J8">
-        <v>0.02754145242594913</v>
+        <v>0.03379888616652608</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.098778</v>
+        <v>0.7285076666666667</v>
       </c>
       <c r="N8">
-        <v>6.296334</v>
+        <v>2.185523</v>
       </c>
       <c r="O8">
-        <v>0.3165022962792946</v>
+        <v>0.1384760821597099</v>
       </c>
       <c r="P8">
-        <v>0.3165022962792947</v>
+        <v>0.1384760821597099</v>
       </c>
       <c r="Q8">
-        <v>1.749316071961333</v>
+        <v>0.6072057977771111</v>
       </c>
       <c r="R8">
-        <v>15.743844647652</v>
+        <v>5.464852179994</v>
       </c>
       <c r="S8">
-        <v>0.008716932935679851</v>
+        <v>0.004680337337702549</v>
       </c>
       <c r="T8">
-        <v>0.008716932935679851</v>
+        <v>0.004680337337702549</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.500478</v>
       </c>
       <c r="I9">
-        <v>0.02754145242594914</v>
+        <v>0.03379888616652608</v>
       </c>
       <c r="J9">
-        <v>0.02754145242594913</v>
+        <v>0.03379888616652608</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>10.7531</v>
       </c>
       <c r="O9">
-        <v>0.5405337204349202</v>
+        <v>0.6813230330092965</v>
       </c>
       <c r="P9">
-        <v>0.5405337204349203</v>
+        <v>0.6813230330092966</v>
       </c>
       <c r="Q9">
         <v>2.987543331311111</v>
@@ -1004,10 +1004,10 @@
         <v>26.8878899818</v>
       </c>
       <c r="S9">
-        <v>0.01488708374597965</v>
+        <v>0.0230279596353135</v>
       </c>
       <c r="T9">
-        <v>0.01488708374597965</v>
+        <v>0.02302795963531351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.500478</v>
       </c>
       <c r="I10">
-        <v>0.02754145242594914</v>
+        <v>0.03379888616652608</v>
       </c>
       <c r="J10">
-        <v>0.02754145242594913</v>
+        <v>0.03379888616652608</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>2.844052</v>
       </c>
       <c r="O10">
-        <v>0.1429639832857851</v>
+        <v>0.1802008848309935</v>
       </c>
       <c r="P10">
-        <v>0.1429639832857851</v>
+        <v>0.1802008848309935</v>
       </c>
       <c r="Q10">
         <v>0.7901654952062224</v>
@@ -1066,10 +1066,10 @@
         <v>7.111489456856001</v>
       </c>
       <c r="S10">
-        <v>0.003937435744289638</v>
+        <v>0.006090589193510024</v>
       </c>
       <c r="T10">
-        <v>0.003937435744289638</v>
+        <v>0.006090589193510024</v>
       </c>
     </row>
   </sheetData>
